--- a/Test Data/FC_Gallery_Panels.xlsx
+++ b/Test Data/FC_Gallery_Panels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F57399C-AA1D-4460-AD07-B0E74560B426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91156811-6CD5-4864-A805-1463C4982438}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>

--- a/Test Data/FC_Gallery_Panels.xlsx
+++ b/Test Data/FC_Gallery_Panels.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91156811-6CD5-4864-A805-1463C4982438}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F18F88-8685-4695-A384-4BF8A17F00A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="13" r:id="rId1"/>
     <sheet name="Belgium" sheetId="6" r:id="rId2"/>
+    <sheet name="Denmark" sheetId="14" r:id="rId3"/>
+    <sheet name="Sweden" sheetId="15" r:id="rId4"/>
+    <sheet name="Norway" sheetId="16" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -109,6 +112,24 @@
   </si>
   <si>
     <t>NGC-3463/T1192/T1210/T1234/T1233/T1236</t>
+  </si>
+  <si>
+    <t>Denmark market</t>
+  </si>
+  <si>
+    <t>NGC-3446/T2003</t>
+  </si>
+  <si>
+    <t>Sweden market</t>
+  </si>
+  <si>
+    <t>NGC-3465/T2029</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-3464/T1918</t>
   </si>
 </sst>
 </file>
@@ -679,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB1E1A-05DD-49D0-9147-9D7D528C068A}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,4 +816,310 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF8964A-7A50-4C4C-B256-11FE42D7BB56}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F844A3C6-E28C-4909-8B8D-ADC5FC2B5098}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F10C545-7D56-417F-8346-D7B49593A502}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_Panels.xlsx
+++ b/Test Data/FC_Gallery_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F18F88-8685-4695-A384-4BF8A17F00A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C551A5-909F-4919-9D7F-4DF492ABD4DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="13" r:id="rId1"/>
@@ -18,6 +18,13 @@
     <sheet name="Denmark" sheetId="14" r:id="rId3"/>
     <sheet name="Sweden" sheetId="15" r:id="rId4"/>
     <sheet name="Norway" sheetId="16" r:id="rId5"/>
+    <sheet name="Italy" sheetId="17" r:id="rId6"/>
+    <sheet name="Spain" sheetId="18" r:id="rId7"/>
+    <sheet name="Serbia" sheetId="19" r:id="rId8"/>
+    <sheet name="Romania" sheetId="20" r:id="rId9"/>
+    <sheet name="Slovakia" sheetId="21" r:id="rId10"/>
+    <sheet name="Turkey" sheetId="22" r:id="rId11"/>
+    <sheet name="Hungary" sheetId="23" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="43">
   <si>
     <t>Wg</t>
   </si>
@@ -130,6 +137,42 @@
   </si>
   <si>
     <t>NGC-3464/T1918</t>
+  </si>
+  <si>
+    <t>Italy market</t>
+  </si>
+  <si>
+    <t>NGC-3443/T1916</t>
+  </si>
+  <si>
+    <t>Spain market</t>
+  </si>
+  <si>
+    <t>NGC-3442/T1592</t>
+  </si>
+  <si>
+    <t>Serbia market</t>
+  </si>
+  <si>
+    <t>NGC-4305/T3495</t>
+  </si>
+  <si>
+    <t>Romania market</t>
+  </si>
+  <si>
+    <t>NGC-4307/T3541</t>
+  </si>
+  <si>
+    <t>Slovakia market</t>
+  </si>
+  <si>
+    <t>NGC-4306/T3555</t>
+  </si>
+  <si>
+    <t>Turkey market</t>
+  </si>
+  <si>
+    <t>Hungary market</t>
   </si>
 </sst>
 </file>
@@ -696,6 +739,373 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C02BB41-8CFA-4E51-AF89-81E6DFFD40CA}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B67E3A-0EDF-4C82-A991-482E016EFF92}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B191EFBE-1740-42D3-A211-5AA2792DDC89}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB1E1A-05DD-49D0-9147-9D7D528C068A}">
   <dimension ref="A1:D15"/>
@@ -1026,7 +1436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F10C545-7D56-417F-8346-D7B49593A502}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1122,4 +1532,462 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41008017-1DD7-47C1-9D97-F1E88B76B3DC}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA9EA57-DDFF-439E-B9AB-128D47817396}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA59008-1FAA-45EB-8691-A5D9C2C4DB25}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8B602E-C889-4607-971E-F5B2F6901D50}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_Panels.xlsx
+++ b/Test Data/FC_Gallery_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C551A5-909F-4919-9D7F-4DF492ABD4DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8079DA3-1A03-4EA1-9C44-BF4188FA9839}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="11" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="13" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="44">
   <si>
     <t>Wg</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Hungary market</t>
+  </si>
+  <si>
+    <t>NGC-4308/T3599</t>
   </si>
 </sst>
 </file>
@@ -597,7 +600,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -975,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B191EFBE-1740-42D3-A211-5AA2792DDC89}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,7 +1024,9 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -1066,7 +1071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -1076,7 +1081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1538,7 +1543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41008017-1DD7-47C1-9D97-F1E88B76B3DC}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:A12"/>
     </sheetView>
   </sheetViews>
